--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2764.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2764.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.165091480146898</v>
+        <v>1.725964784622192</v>
       </c>
       <c r="B1">
-        <v>2.426389878155499</v>
+        <v>1.872593283653259</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.131636381149292</v>
       </c>
       <c r="D1">
-        <v>2.368124233386169</v>
+        <v>3.399286031723022</v>
       </c>
       <c r="E1">
-        <v>1.225498214723336</v>
+        <v>2.760457515716553</v>
       </c>
     </row>
   </sheetData>
